--- a/metrics/transfer_time/cleaned_data/nginx_06.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_06.nan.xlsx
@@ -601,11 +601,21 @@
       <c r="Q2" t="n">
         <v>1195</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10820788</v>
+      </c>
+      <c r="U2" t="n">
+        <v>17</v>
+      </c>
+      <c r="V2" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -659,11 +669,21 @@
       <c r="Q3" t="n">
         <v>1193</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10820788</v>
+      </c>
+      <c r="U3" t="n">
+        <v>17</v>
+      </c>
+      <c r="V3" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -717,11 +737,21 @@
       <c r="Q4" t="n">
         <v>1193</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10820788</v>
+      </c>
+      <c r="U4" t="n">
+        <v>17</v>
+      </c>
+      <c r="V4" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -843,11 +873,21 @@
       <c r="Q6" t="n">
         <v>1192</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10820788</v>
+      </c>
+      <c r="U6" t="n">
+        <v>17</v>
+      </c>
+      <c r="V6" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -901,11 +941,21 @@
       <c r="Q7" t="n">
         <v>1191</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10820788</v>
+      </c>
+      <c r="U7" t="n">
+        <v>17</v>
+      </c>
+      <c r="V7" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -959,11 +1009,21 @@
       <c r="Q8" t="n">
         <v>1192</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10820788</v>
+      </c>
+      <c r="U8" t="n">
+        <v>17</v>
+      </c>
+      <c r="V8" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1017,11 +1077,21 @@
       <c r="Q9" t="n">
         <v>1192</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10820788</v>
+      </c>
+      <c r="U9" t="n">
+        <v>17</v>
+      </c>
+      <c r="V9" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1143,11 +1213,21 @@
       <c r="Q11" t="n">
         <v>1192</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10821088</v>
+      </c>
+      <c r="U11" t="n">
+        <v>17</v>
+      </c>
+      <c r="V11" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1201,11 +1281,21 @@
       <c r="Q12" t="n">
         <v>1192</v>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10821088</v>
+      </c>
+      <c r="U12" t="n">
+        <v>17</v>
+      </c>
+      <c r="V12" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1259,11 +1349,21 @@
       <c r="Q13" t="n">
         <v>1192</v>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T13" t="n">
+        <v>10821088</v>
+      </c>
+      <c r="U13" t="n">
+        <v>17</v>
+      </c>
+      <c r="V13" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1317,11 +1417,21 @@
       <c r="Q14" t="n">
         <v>1192</v>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T14" t="n">
+        <v>10821088</v>
+      </c>
+      <c r="U14" t="n">
+        <v>17</v>
+      </c>
+      <c r="V14" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1443,11 +1553,21 @@
       <c r="Q16" t="n">
         <v>1193</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10821388</v>
+      </c>
+      <c r="U16" t="n">
+        <v>18</v>
+      </c>
+      <c r="V16" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1501,11 +1621,21 @@
       <c r="Q17" t="n">
         <v>1193</v>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T17" t="n">
+        <v>10821388</v>
+      </c>
+      <c r="U17" t="n">
+        <v>18</v>
+      </c>
+      <c r="V17" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1559,11 +1689,21 @@
       <c r="Q18" t="n">
         <v>1193</v>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T18" t="n">
+        <v>10821388</v>
+      </c>
+      <c r="U18" t="n">
+        <v>18</v>
+      </c>
+      <c r="V18" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1617,11 +1757,21 @@
       <c r="Q19" t="n">
         <v>1194</v>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10821388</v>
+      </c>
+      <c r="U19" t="n">
+        <v>18</v>
+      </c>
+      <c r="V19" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1743,11 +1893,21 @@
       <c r="Q21" t="n">
         <v>1193</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10821688</v>
+      </c>
+      <c r="U21" t="n">
+        <v>17</v>
+      </c>
+      <c r="V21" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1801,11 +1961,21 @@
       <c r="Q22" t="n">
         <v>1192</v>
       </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T22" t="n">
+        <v>10821688</v>
+      </c>
+      <c r="U22" t="n">
+        <v>17</v>
+      </c>
+      <c r="V22" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1859,11 +2029,21 @@
       <c r="Q23" t="n">
         <v>1193</v>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10821688</v>
+      </c>
+      <c r="U23" t="n">
+        <v>17</v>
+      </c>
+      <c r="V23" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1917,11 +2097,21 @@
       <c r="Q24" t="n">
         <v>1192</v>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10821688</v>
+      </c>
+      <c r="U24" t="n">
+        <v>17</v>
+      </c>
+      <c r="V24" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2043,11 +2233,21 @@
       <c r="Q26" t="n">
         <v>1192</v>
       </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T26" t="n">
+        <v>10821988</v>
+      </c>
+      <c r="U26" t="n">
+        <v>17</v>
+      </c>
+      <c r="V26" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2101,11 +2301,21 @@
       <c r="Q27" t="n">
         <v>1192</v>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10821988</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17</v>
+      </c>
+      <c r="V27" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2159,11 +2369,21 @@
       <c r="Q28" t="n">
         <v>1192</v>
       </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10821988</v>
+      </c>
+      <c r="U28" t="n">
+        <v>17</v>
+      </c>
+      <c r="V28" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2217,11 +2437,21 @@
       <c r="Q29" t="n">
         <v>1192</v>
       </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10821988</v>
+      </c>
+      <c r="U29" t="n">
+        <v>17</v>
+      </c>
+      <c r="V29" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2343,11 +2573,21 @@
       <c r="Q31" t="n">
         <v>1193</v>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T31" t="n">
+        <v>10822288</v>
+      </c>
+      <c r="U31" t="n">
+        <v>17</v>
+      </c>
+      <c r="V31" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2401,11 +2641,21 @@
       <c r="Q32" t="n">
         <v>1192</v>
       </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T32" t="n">
+        <v>10822288</v>
+      </c>
+      <c r="U32" t="n">
+        <v>17</v>
+      </c>
+      <c r="V32" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2459,11 +2709,21 @@
       <c r="Q33" t="n">
         <v>1192</v>
       </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T33" t="n">
+        <v>10822288</v>
+      </c>
+      <c r="U33" t="n">
+        <v>17</v>
+      </c>
+      <c r="V33" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2517,11 +2777,21 @@
       <c r="Q34" t="n">
         <v>1193</v>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T34" t="n">
+        <v>10822288</v>
+      </c>
+      <c r="U34" t="n">
+        <v>17</v>
+      </c>
+      <c r="V34" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2643,11 +2913,21 @@
       <c r="Q36" t="n">
         <v>1192</v>
       </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10822589</v>
+      </c>
+      <c r="U36" t="n">
+        <v>19</v>
+      </c>
+      <c r="V36" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2701,11 +2981,21 @@
       <c r="Q37" t="n">
         <v>1197</v>
       </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10822589</v>
+      </c>
+      <c r="U37" t="n">
+        <v>19</v>
+      </c>
+      <c r="V37" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2759,11 +3049,21 @@
       <c r="Q38" t="n">
         <v>1200</v>
       </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T38" t="n">
+        <v>10822589</v>
+      </c>
+      <c r="U38" t="n">
+        <v>19</v>
+      </c>
+      <c r="V38" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2817,11 +3117,21 @@
       <c r="Q39" t="n">
         <v>1193</v>
       </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T39" t="n">
+        <v>10822589</v>
+      </c>
+      <c r="U39" t="n">
+        <v>19</v>
+      </c>
+      <c r="V39" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2943,11 +3253,21 @@
       <c r="Q41" t="n">
         <v>1193</v>
       </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T41" t="n">
+        <v>10822889</v>
+      </c>
+      <c r="U41" t="n">
+        <v>17</v>
+      </c>
+      <c r="V41" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3001,11 +3321,21 @@
       <c r="Q42" t="n">
         <v>1193</v>
       </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T42" t="n">
+        <v>10822889</v>
+      </c>
+      <c r="U42" t="n">
+        <v>17</v>
+      </c>
+      <c r="V42" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3059,11 +3389,21 @@
       <c r="Q43" t="n">
         <v>1194</v>
       </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T43" t="n">
+        <v>10822889</v>
+      </c>
+      <c r="U43" t="n">
+        <v>17</v>
+      </c>
+      <c r="V43" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3117,11 +3457,21 @@
       <c r="Q44" t="n">
         <v>1194</v>
       </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10822889</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3243,11 +3593,21 @@
       <c r="Q46" t="n">
         <v>1193</v>
       </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10823189</v>
+      </c>
+      <c r="U46" t="n">
+        <v>19</v>
+      </c>
+      <c r="V46" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3301,11 +3661,21 @@
       <c r="Q47" t="n">
         <v>1192</v>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T47" t="n">
+        <v>10823189</v>
+      </c>
+      <c r="U47" t="n">
+        <v>19</v>
+      </c>
+      <c r="V47" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3359,11 +3729,21 @@
       <c r="Q48" t="n">
         <v>1193</v>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T48" t="n">
+        <v>10823189</v>
+      </c>
+      <c r="U48" t="n">
+        <v>19</v>
+      </c>
+      <c r="V48" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3417,11 +3797,21 @@
       <c r="Q49" t="n">
         <v>1193</v>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T49" t="n">
+        <v>10823189</v>
+      </c>
+      <c r="U49" t="n">
+        <v>19</v>
+      </c>
+      <c r="V49" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3543,11 +3933,21 @@
       <c r="Q51" t="n">
         <v>1193</v>
       </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T51" t="n">
+        <v>10823489</v>
+      </c>
+      <c r="U51" t="n">
+        <v>17</v>
+      </c>
+      <c r="V51" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3601,11 +4001,21 @@
       <c r="Q52" t="n">
         <v>1193</v>
       </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T52" t="n">
+        <v>10823489</v>
+      </c>
+      <c r="U52" t="n">
+        <v>17</v>
+      </c>
+      <c r="V52" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3659,11 +4069,21 @@
       <c r="Q53" t="n">
         <v>1192</v>
       </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10823489</v>
+      </c>
+      <c r="U53" t="n">
+        <v>17</v>
+      </c>
+      <c r="V53" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3717,11 +4137,21 @@
       <c r="Q54" t="n">
         <v>1193</v>
       </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T54" t="n">
+        <v>10823489</v>
+      </c>
+      <c r="U54" t="n">
+        <v>17</v>
+      </c>
+      <c r="V54" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3843,11 +4273,21 @@
       <c r="Q56" t="n">
         <v>1193</v>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T56" t="n">
+        <v>10823789</v>
+      </c>
+      <c r="U56" t="n">
+        <v>19</v>
+      </c>
+      <c r="V56" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3901,11 +4341,21 @@
       <c r="Q57" t="n">
         <v>1192</v>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T57" t="n">
+        <v>10823789</v>
+      </c>
+      <c r="U57" t="n">
+        <v>19</v>
+      </c>
+      <c r="V57" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3959,11 +4409,21 @@
       <c r="Q58" t="n">
         <v>1193</v>
       </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T58" t="n">
+        <v>10823789</v>
+      </c>
+      <c r="U58" t="n">
+        <v>19</v>
+      </c>
+      <c r="V58" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4017,11 +4477,21 @@
       <c r="Q59" t="n">
         <v>1193</v>
       </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T59" t="n">
+        <v>10823789</v>
+      </c>
+      <c r="U59" t="n">
+        <v>19</v>
+      </c>
+      <c r="V59" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4211,11 +4681,21 @@
       <c r="Q62" t="n">
         <v>1192</v>
       </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T62" t="n">
+        <v>10824089</v>
+      </c>
+      <c r="U62" t="n">
+        <v>17</v>
+      </c>
+      <c r="V62" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4269,11 +4749,21 @@
       <c r="Q63" t="n">
         <v>1192</v>
       </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10824089</v>
+      </c>
+      <c r="U63" t="n">
+        <v>17</v>
+      </c>
+      <c r="V63" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4327,11 +4817,21 @@
       <c r="Q64" t="n">
         <v>1193</v>
       </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10824089</v>
+      </c>
+      <c r="U64" t="n">
+        <v>17</v>
+      </c>
+      <c r="V64" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4453,11 +4953,21 @@
       <c r="Q66" t="n">
         <v>1193</v>
       </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T66" t="n">
+        <v>10824389</v>
+      </c>
+      <c r="U66" t="n">
+        <v>17</v>
+      </c>
+      <c r="V66" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4511,11 +5021,21 @@
       <c r="Q67" t="n">
         <v>1192</v>
       </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T67" t="n">
+        <v>10824389</v>
+      </c>
+      <c r="U67" t="n">
+        <v>17</v>
+      </c>
+      <c r="V67" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4569,11 +5089,21 @@
       <c r="Q68" t="n">
         <v>1193</v>
       </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T68" t="n">
+        <v>10824389</v>
+      </c>
+      <c r="U68" t="n">
+        <v>17</v>
+      </c>
+      <c r="V68" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4627,11 +5157,21 @@
       <c r="Q69" t="n">
         <v>1193</v>
       </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T69" t="n">
+        <v>10824389</v>
+      </c>
+      <c r="U69" t="n">
+        <v>17</v>
+      </c>
+      <c r="V69" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4753,11 +5293,21 @@
       <c r="Q71" t="n">
         <v>1192</v>
       </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T71" t="n">
+        <v>10824689</v>
+      </c>
+      <c r="U71" t="n">
+        <v>19</v>
+      </c>
+      <c r="V71" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4811,11 +5361,21 @@
       <c r="Q72" t="n">
         <v>1192</v>
       </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T72" t="n">
+        <v>10824689</v>
+      </c>
+      <c r="U72" t="n">
+        <v>19</v>
+      </c>
+      <c r="V72" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4869,11 +5429,21 @@
       <c r="Q73" t="n">
         <v>1193</v>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T73" t="n">
+        <v>10824689</v>
+      </c>
+      <c r="U73" t="n">
+        <v>19</v>
+      </c>
+      <c r="V73" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4927,11 +5497,21 @@
       <c r="Q74" t="n">
         <v>1193</v>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T74" t="n">
+        <v>10824689</v>
+      </c>
+      <c r="U74" t="n">
+        <v>19</v>
+      </c>
+      <c r="V74" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -5053,11 +5633,21 @@
       <c r="Q76" t="n">
         <v>1192</v>
       </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T76" t="n">
+        <v>10824989</v>
+      </c>
+      <c r="U76" t="n">
+        <v>17</v>
+      </c>
+      <c r="V76" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5111,11 +5701,21 @@
       <c r="Q77" t="n">
         <v>1192</v>
       </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T77" t="n">
+        <v>10824989</v>
+      </c>
+      <c r="U77" t="n">
+        <v>17</v>
+      </c>
+      <c r="V77" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5169,11 +5769,21 @@
       <c r="Q78" t="n">
         <v>1193</v>
       </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T78" t="n">
+        <v>10824989</v>
+      </c>
+      <c r="U78" t="n">
+        <v>17</v>
+      </c>
+      <c r="V78" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5227,11 +5837,21 @@
       <c r="Q79" t="n">
         <v>1193</v>
       </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T79" t="n">
+        <v>10824989</v>
+      </c>
+      <c r="U79" t="n">
+        <v>17</v>
+      </c>
+      <c r="V79" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5353,11 +5973,21 @@
       <c r="Q81" t="n">
         <v>1193</v>
       </c>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T81" t="n">
+        <v>10825289</v>
+      </c>
+      <c r="U81" t="n">
+        <v>17</v>
+      </c>
+      <c r="V81" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -5411,11 +6041,21 @@
       <c r="Q82" t="n">
         <v>1193</v>
       </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T82" t="n">
+        <v>10825289</v>
+      </c>
+      <c r="U82" t="n">
+        <v>17</v>
+      </c>
+      <c r="V82" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5469,11 +6109,21 @@
       <c r="Q83" t="n">
         <v>1193</v>
       </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T83" t="n">
+        <v>10825289</v>
+      </c>
+      <c r="U83" t="n">
+        <v>17</v>
+      </c>
+      <c r="V83" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5527,11 +6177,21 @@
       <c r="Q84" t="n">
         <v>1193</v>
       </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T84" t="n">
+        <v>10825289</v>
+      </c>
+      <c r="U84" t="n">
+        <v>17</v>
+      </c>
+      <c r="V84" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -5653,11 +6313,21 @@
       <c r="Q86" t="n">
         <v>1193</v>
       </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T86" t="n">
+        <v>10825589</v>
+      </c>
+      <c r="U86" t="n">
+        <v>17</v>
+      </c>
+      <c r="V86" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5711,11 +6381,21 @@
       <c r="Q87" t="n">
         <v>1192</v>
       </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T87" t="n">
+        <v>10825589</v>
+      </c>
+      <c r="U87" t="n">
+        <v>17</v>
+      </c>
+      <c r="V87" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5769,11 +6449,21 @@
       <c r="Q88" t="n">
         <v>1193</v>
       </c>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T88" t="n">
+        <v>10825589</v>
+      </c>
+      <c r="U88" t="n">
+        <v>17</v>
+      </c>
+      <c r="V88" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5827,11 +6517,21 @@
       <c r="Q89" t="n">
         <v>1193</v>
       </c>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T89" t="n">
+        <v>10825589</v>
+      </c>
+      <c r="U89" t="n">
+        <v>17</v>
+      </c>
+      <c r="V89" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5953,11 +6653,21 @@
       <c r="Q91" t="n">
         <v>1192</v>
       </c>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T91" t="n">
+        <v>10825889</v>
+      </c>
+      <c r="U91" t="n">
+        <v>19</v>
+      </c>
+      <c r="V91" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -6011,11 +6721,21 @@
       <c r="Q92" t="n">
         <v>1193</v>
       </c>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T92" t="n">
+        <v>10825889</v>
+      </c>
+      <c r="U92" t="n">
+        <v>19</v>
+      </c>
+      <c r="V92" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6069,11 +6789,21 @@
       <c r="Q93" t="n">
         <v>1193</v>
       </c>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T93" t="n">
+        <v>10825889</v>
+      </c>
+      <c r="U93" t="n">
+        <v>19</v>
+      </c>
+      <c r="V93" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6127,11 +6857,21 @@
       <c r="Q94" t="n">
         <v>1193</v>
       </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T94" t="n">
+        <v>10825889</v>
+      </c>
+      <c r="U94" t="n">
+        <v>19</v>
+      </c>
+      <c r="V94" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6253,11 +6993,21 @@
       <c r="Q96" t="n">
         <v>1192</v>
       </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10826188</v>
+      </c>
+      <c r="U96" t="n">
+        <v>17</v>
+      </c>
+      <c r="V96" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -6311,11 +7061,21 @@
       <c r="Q97" t="n">
         <v>1199</v>
       </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T97" t="n">
+        <v>10826188</v>
+      </c>
+      <c r="U97" t="n">
+        <v>17</v>
+      </c>
+      <c r="V97" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -6369,11 +7129,21 @@
       <c r="Q98" t="n">
         <v>1194</v>
       </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T98" t="n">
+        <v>10826188</v>
+      </c>
+      <c r="U98" t="n">
+        <v>17</v>
+      </c>
+      <c r="V98" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6427,11 +7197,21 @@
       <c r="Q99" t="n">
         <v>1195</v>
       </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T99" t="n">
+        <v>10826188</v>
+      </c>
+      <c r="U99" t="n">
+        <v>17</v>
+      </c>
+      <c r="V99" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -6553,11 +7333,21 @@
       <c r="Q101" t="n">
         <v>1195</v>
       </c>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T101" t="n">
+        <v>10826488</v>
+      </c>
+      <c r="U101" t="n">
+        <v>17</v>
+      </c>
+      <c r="V101" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -6611,11 +7401,21 @@
       <c r="Q102" t="n">
         <v>1192</v>
       </c>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T102" t="n">
+        <v>10826488</v>
+      </c>
+      <c r="U102" t="n">
+        <v>17</v>
+      </c>
+      <c r="V102" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -6669,11 +7469,21 @@
       <c r="Q103" t="n">
         <v>1193</v>
       </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T103" t="n">
+        <v>10826488</v>
+      </c>
+      <c r="U103" t="n">
+        <v>17</v>
+      </c>
+      <c r="V103" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -6727,11 +7537,21 @@
       <c r="Q104" t="n">
         <v>1193</v>
       </c>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T104" t="n">
+        <v>10826488</v>
+      </c>
+      <c r="U104" t="n">
+        <v>17</v>
+      </c>
+      <c r="V104" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6853,11 +7673,21 @@
       <c r="Q106" t="n">
         <v>1193</v>
       </c>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T106" t="n">
+        <v>10826788</v>
+      </c>
+      <c r="U106" t="n">
+        <v>17</v>
+      </c>
+      <c r="V106" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6911,11 +7741,21 @@
       <c r="Q107" t="n">
         <v>1193</v>
       </c>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T107" t="n">
+        <v>10826788</v>
+      </c>
+      <c r="U107" t="n">
+        <v>17</v>
+      </c>
+      <c r="V107" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6969,11 +7809,21 @@
       <c r="Q108" t="n">
         <v>1193</v>
       </c>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T108" t="n">
+        <v>10826788</v>
+      </c>
+      <c r="U108" t="n">
+        <v>17</v>
+      </c>
+      <c r="V108" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7027,11 +7877,21 @@
       <c r="Q109" t="n">
         <v>1193</v>
       </c>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T109" t="n">
+        <v>10826788</v>
+      </c>
+      <c r="U109" t="n">
+        <v>17</v>
+      </c>
+      <c r="V109" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7153,11 +8013,21 @@
       <c r="Q111" t="n">
         <v>1193</v>
       </c>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T111" t="n">
+        <v>10827088</v>
+      </c>
+      <c r="U111" t="n">
+        <v>19</v>
+      </c>
+      <c r="V111" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -7211,11 +8081,21 @@
       <c r="Q112" t="n">
         <v>1193</v>
       </c>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T112" t="n">
+        <v>10827088</v>
+      </c>
+      <c r="U112" t="n">
+        <v>19</v>
+      </c>
+      <c r="V112" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -7269,11 +8149,21 @@
       <c r="Q113" t="n">
         <v>1193</v>
       </c>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T113" t="n">
+        <v>10827088</v>
+      </c>
+      <c r="U113" t="n">
+        <v>19</v>
+      </c>
+      <c r="V113" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -7327,11 +8217,21 @@
       <c r="Q114" t="n">
         <v>1193</v>
       </c>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T114" t="n">
+        <v>10827088</v>
+      </c>
+      <c r="U114" t="n">
+        <v>19</v>
+      </c>
+      <c r="V114" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -7453,11 +8353,21 @@
       <c r="Q116" t="n">
         <v>1192</v>
       </c>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T116" t="n">
+        <v>10827388</v>
+      </c>
+      <c r="U116" t="n">
+        <v>17</v>
+      </c>
+      <c r="V116" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -7511,11 +8421,21 @@
       <c r="Q117" t="n">
         <v>1193</v>
       </c>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T117" t="n">
+        <v>10827388</v>
+      </c>
+      <c r="U117" t="n">
+        <v>17</v>
+      </c>
+      <c r="V117" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -7569,11 +8489,21 @@
       <c r="Q118" t="n">
         <v>1193</v>
       </c>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T118" t="n">
+        <v>10827388</v>
+      </c>
+      <c r="U118" t="n">
+        <v>17</v>
+      </c>
+      <c r="V118" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -7627,11 +8557,21 @@
       <c r="Q119" t="n">
         <v>1193</v>
       </c>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>1440</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="T119" t="n">
+        <v>10827388</v>
+      </c>
+      <c r="U119" t="n">
+        <v>17</v>
+      </c>
+      <c r="V119" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -7821,11 +8761,21 @@
       <c r="Q122" t="n">
         <v>1194</v>
       </c>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T122" t="n">
+        <v>10827689</v>
+      </c>
+      <c r="U122" t="n">
+        <v>17</v>
+      </c>
+      <c r="V122" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -7879,11 +8829,21 @@
       <c r="Q123" t="n">
         <v>1195</v>
       </c>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T123" t="n">
+        <v>10827689</v>
+      </c>
+      <c r="U123" t="n">
+        <v>17</v>
+      </c>
+      <c r="V123" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7937,11 +8897,21 @@
       <c r="Q124" t="n">
         <v>1196</v>
       </c>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="T124" t="n">
+        <v>10827689</v>
+      </c>
+      <c r="U124" t="n">
+        <v>17</v>
+      </c>
+      <c r="V124" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -8063,11 +9033,21 @@
       <c r="Q126" t="n">
         <v>1194</v>
       </c>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T126" t="n">
+        <v>10827989</v>
+      </c>
+      <c r="U126" t="n">
+        <v>19</v>
+      </c>
+      <c r="V126" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -8121,11 +9101,21 @@
       <c r="Q127" t="n">
         <v>1194</v>
       </c>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T127" t="n">
+        <v>10827989</v>
+      </c>
+      <c r="U127" t="n">
+        <v>19</v>
+      </c>
+      <c r="V127" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -8179,11 +9169,21 @@
       <c r="Q128" t="n">
         <v>1193</v>
       </c>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T128" t="n">
+        <v>10827989</v>
+      </c>
+      <c r="U128" t="n">
+        <v>19</v>
+      </c>
+      <c r="V128" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -8237,11 +9237,21 @@
       <c r="Q129" t="n">
         <v>1195</v>
       </c>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T129" t="n">
+        <v>10827989</v>
+      </c>
+      <c r="U129" t="n">
+        <v>19</v>
+      </c>
+      <c r="V129" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -8363,11 +9373,21 @@
       <c r="Q131" t="n">
         <v>1195</v>
       </c>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T131" t="n">
+        <v>10828289</v>
+      </c>
+      <c r="U131" t="n">
+        <v>17</v>
+      </c>
+      <c r="V131" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -8421,11 +9441,21 @@
       <c r="Q132" t="n">
         <v>1194</v>
       </c>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T132" t="n">
+        <v>10828289</v>
+      </c>
+      <c r="U132" t="n">
+        <v>17</v>
+      </c>
+      <c r="V132" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -8479,11 +9509,21 @@
       <c r="Q133" t="n">
         <v>1194</v>
       </c>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T133" t="n">
+        <v>10828289</v>
+      </c>
+      <c r="U133" t="n">
+        <v>17</v>
+      </c>
+      <c r="V133" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -8537,11 +9577,21 @@
       <c r="Q134" t="n">
         <v>1194</v>
       </c>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T134" t="n">
+        <v>10828289</v>
+      </c>
+      <c r="U134" t="n">
+        <v>17</v>
+      </c>
+      <c r="V134" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -8663,11 +9713,21 @@
       <c r="Q136" t="n">
         <v>1196</v>
       </c>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T136" t="n">
+        <v>10828589</v>
+      </c>
+      <c r="U136" t="n">
+        <v>18</v>
+      </c>
+      <c r="V136" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -8721,11 +9781,21 @@
       <c r="Q137" t="n">
         <v>1196</v>
       </c>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T137" t="n">
+        <v>10828589</v>
+      </c>
+      <c r="U137" t="n">
+        <v>18</v>
+      </c>
+      <c r="V137" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -8779,11 +9849,21 @@
       <c r="Q138" t="n">
         <v>1194</v>
       </c>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T138" t="n">
+        <v>10828589</v>
+      </c>
+      <c r="U138" t="n">
+        <v>18</v>
+      </c>
+      <c r="V138" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -8837,11 +9917,21 @@
       <c r="Q139" t="n">
         <v>1195</v>
       </c>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T139" t="n">
+        <v>10828589</v>
+      </c>
+      <c r="U139" t="n">
+        <v>18</v>
+      </c>
+      <c r="V139" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -8963,11 +10053,21 @@
       <c r="Q141" t="n">
         <v>1195</v>
       </c>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T141" t="n">
+        <v>10828889</v>
+      </c>
+      <c r="U141" t="n">
+        <v>19</v>
+      </c>
+      <c r="V141" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -9021,11 +10121,21 @@
       <c r="Q142" t="n">
         <v>1195</v>
       </c>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T142" t="n">
+        <v>10828889</v>
+      </c>
+      <c r="U142" t="n">
+        <v>19</v>
+      </c>
+      <c r="V142" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -9079,11 +10189,21 @@
       <c r="Q143" t="n">
         <v>1195</v>
       </c>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>1504</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="T143" t="n">
+        <v>10828889</v>
+      </c>
+      <c r="U143" t="n">
+        <v>19</v>
+      </c>
+      <c r="V143" t="n">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
